--- a/data/income_statement/2digits/size/08_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/08_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>08-Other mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>08-Other mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,875 +841,990 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1375045.93363</v>
+        <v>1487924.7333</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1910239.42217</v>
+        <v>2058907.11362</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1710180.82242</v>
+        <v>1911701.68792</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1789624.75038</v>
+        <v>2069574.8186</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2685832.24323</v>
+        <v>2993395.46664</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2538917.31595</v>
+        <v>3029319.07259</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3065058.27848</v>
+        <v>3647300.06492</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2740992.41937</v>
+        <v>3447923.41246</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2915877.91321</v>
+        <v>3581036.05979</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5900977.83099</v>
+        <v>6285320.30141</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5662558.890319999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6223803.99908</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6649876.535</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1221713.42912</v>
+        <v>1326238.54983</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1376899.08209</v>
+        <v>1508541.62519</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1548035.30924</v>
+        <v>1731999.10925</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1581957.80118</v>
+        <v>1831304.12303</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2345796.56431</v>
+        <v>2621175.90494</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2242695.55462</v>
+        <v>2677868.59872</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2728523.87868</v>
+        <v>3218955.33566</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2418050.92043</v>
+        <v>3001429.53195</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2574675.40755</v>
+        <v>3136121.20632</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5032323.80449</v>
+        <v>5355634.83763</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4788332.28346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5163253.49833</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5489070.978</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>122884.88247</v>
+        <v>130152.79562</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>493479.72393</v>
+        <v>505197.5458</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>125719.50194</v>
+        <v>137964.07763</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>170476.41944</v>
+        <v>196375.93691</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>272407.07019</v>
+        <v>291628.49232</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>227360.22632</v>
+        <v>265332.27776</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>267345.24323</v>
+        <v>328266.3378</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>251413.11904</v>
+        <v>312266.1044</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>261283.07663</v>
+        <v>319744.9316599999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>695176.7846499999</v>
+        <v>721583.2236800001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>650733.78929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>792392.82119</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>924295.653</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>30447.62204</v>
+        <v>31533.38785</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>39860.61615</v>
+        <v>45167.94263000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>36426.01123999999</v>
+        <v>41738.50104</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>37190.52976</v>
+        <v>41894.75866</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>67628.60872999999</v>
+        <v>80591.06938</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>68861.53500999999</v>
+        <v>86118.19610999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>69189.15657000001</v>
+        <v>100078.39146</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>71528.3799</v>
+        <v>134227.77611</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>79919.42903</v>
+        <v>125169.92181</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>173477.24185</v>
+        <v>208102.2401</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>223492.81757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>268157.67956</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>236509.904</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3682.21259</v>
+        <v>4820.35891</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3984.76583</v>
+        <v>3936.53609</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6754.45213</v>
+        <v>7008.80646</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5947.912679999999</v>
+        <v>10043.45589</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11707.46543</v>
+        <v>15087.40681</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8666.976710000001</v>
+        <v>12320.849</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9633.72723</v>
+        <v>18663.27735</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12504.52556</v>
+        <v>40418.45623999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11157.59372</v>
+        <v>22554.73805</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>27165.94198</v>
+        <v>30693.95905</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56139.74443999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>58227.67404999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>77359.546</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2447.69722</v>
+        <v>3494.95507</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2496.68562</v>
+        <v>2237.74316</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3273.2929</v>
+        <v>3369.23127</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4719.413300000001</v>
+        <v>8413.863609999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6388.21863</v>
+        <v>6943.39008</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7385.26266</v>
+        <v>9740.348529999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7688.54532</v>
+        <v>15554.34432</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10583.17817</v>
+        <v>37906.0514</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9618.57526</v>
+        <v>20629.29958</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>18153.39032</v>
+        <v>21259.08087</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>41240.05358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>40251.10541</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>69622.958</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>673.3702099999999</v>
+        <v>735.07632</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>312.13934</v>
+        <v>338.81151</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>340.93202</v>
+        <v>488.04509</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>504.27462</v>
+        <v>850.23223</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1389.09984</v>
+        <v>6592.792820000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>968.75366</v>
+        <v>1976.03698</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1333.29234</v>
+        <v>2417.46029</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>945.92042</v>
+        <v>1141.64924</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>875.8323200000001</v>
+        <v>1177.83485</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6526.763730000001</v>
+        <v>6767.967830000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4402.01323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7571.66253</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5771.449</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>561.14516</v>
+        <v>590.32752</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1175.94087</v>
+        <v>1359.98142</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3140.22721</v>
+        <v>3151.5301</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>724.2247600000001</v>
+        <v>779.36005</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3930.14696</v>
+        <v>1551.22391</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>312.96039</v>
+        <v>604.46349</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>611.88957</v>
+        <v>691.47274</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>975.4269700000001</v>
+        <v>1370.7556</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>663.18614</v>
+        <v>747.60362</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2485.78793</v>
+        <v>2666.91035</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10497.67763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10404.90611</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1965.139</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1371363.72104</v>
+        <v>1483104.37439</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1906254.65634</v>
+        <v>2054970.57753</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1703426.37029</v>
+        <v>1904692.88146</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1783676.8377</v>
+        <v>2059531.36271</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2674124.7778</v>
+        <v>2978308.05983</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2530250.33924</v>
+        <v>3016998.22359</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3055424.55125</v>
+        <v>3628636.78757</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2728487.89381</v>
+        <v>3407504.95622</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2904720.31949</v>
+        <v>3558481.32174</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5873811.88901</v>
+        <v>6254626.342359999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5606419.14588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6165576.325030001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6572516.989</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1077903.26631</v>
+        <v>1178537.3149</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1545373.94544</v>
+        <v>1668826.02863</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1351157.41685</v>
+        <v>1513105.36644</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1429699.36415</v>
+        <v>1653315.36094</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2109838.18946</v>
+        <v>2347950.99334</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2002944.18759</v>
+        <v>2382961.99729</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2445704.50721</v>
+        <v>2895860.12698</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2137676.94838</v>
+        <v>2652068.57187</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2309640.06066</v>
+        <v>2798235.58133</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4733213.12795</v>
+        <v>5033745.75734</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4507847.18571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4951090.18799</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5199870.505</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>603313.3875899999</v>
+        <v>688930.07549</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>983301.12161</v>
+        <v>1074084.6029</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>791686.9601200001</v>
+        <v>909849.65174</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>769282.5162599999</v>
+        <v>943072.01378</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1155349.07971</v>
+        <v>1313300.07029</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1098933.98708</v>
+        <v>1373951.94954</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1203182.89382</v>
+        <v>1540108.05988</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1219547.50155</v>
+        <v>1585656.79484</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1189512.37489</v>
+        <v>1559945.48813</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2812297.25644</v>
+        <v>3048460.6125</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2638051.1444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2921987.50797</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3081684.287</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>205692.92208</v>
+        <v>212457.9917</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>189679.29116</v>
+        <v>199357.60961</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>223849.16132</v>
+        <v>238473.69317</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>269637.699</v>
+        <v>276335.50711</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>400738.57214</v>
+        <v>421733.44818</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>340074.52339</v>
+        <v>380528.98403</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>719780.25007</v>
+        <v>748883.1223299999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>406147.21507</v>
+        <v>477486.8326900001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>530117.01397</v>
+        <v>564024.40207</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>935666.58372</v>
+        <v>944038.85771</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>958108.50495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>993946.1331199999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1074939.422</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>263585.3438</v>
+        <v>270893.47025</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>365404.22108</v>
+        <v>381823.8497200001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>329175.59201</v>
+        <v>358564.04755</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>374738.9629</v>
+        <v>416869.58862</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>545373.5309400001</v>
+        <v>603402.81536</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>551142.4458199999</v>
+        <v>610924.57551</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>510425.36648</v>
+        <v>584199.3511</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>491176.79601</v>
+        <v>561320.4734400001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>572165.0249000001</v>
+        <v>655900.15899</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>934085.36112</v>
+        <v>984986.00475</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>867910.8154200001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>969475.68524</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>996350.024</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5311.61284</v>
+        <v>6255.77746</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6989.31159</v>
+        <v>13559.9664</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6445.7034</v>
+        <v>6217.973980000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>16040.18599</v>
+        <v>17038.25143</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>8377.006670000001</v>
+        <v>9514.659510000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>12793.2313</v>
+        <v>17556.48821</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>12315.99684</v>
+        <v>22669.59367</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>20805.43575</v>
+        <v>27604.4709</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>17845.6469</v>
+        <v>18365.53214</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>51163.92667</v>
+        <v>56260.28238</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43776.72094000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>65680.86166000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>46896.772</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>293460.45473</v>
+        <v>304567.05949</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>360880.7108999999</v>
+        <v>386144.5489</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>352268.95344</v>
+        <v>391587.51502</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>353977.47355</v>
+        <v>406216.00177</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>564286.58834</v>
+        <v>630357.06649</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>527306.15165</v>
+        <v>634036.2263</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>609720.0440399999</v>
+        <v>732776.66059</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>590810.9454300001</v>
+        <v>755436.3843499999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>595080.2588299999</v>
+        <v>760245.74041</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1140598.76106</v>
+        <v>1220880.58502</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1098571.96017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1214486.13704</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1372646.484</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>221261.3057</v>
+        <v>237841.98607</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>281231.67568</v>
+        <v>306593.8813</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>285179.56385</v>
+        <v>328763.20563</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>289806.58002</v>
+        <v>314877.17404</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>423314.22107</v>
+        <v>455403.74765</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>430328.7440300001</v>
+        <v>490939.5177199999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>515942.39772</v>
+        <v>589088.01373</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>500023.02655</v>
+        <v>602808.8594200001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>493064.1955499999</v>
+        <v>586821.1177300001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>850619.7296900001</v>
+        <v>871577.1258200001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>883271.53224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>922458.1956100001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>926628.393</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>196.34362</v>
+        <v>1152.35292</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>222.24848</v>
+        <v>10196.47594</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1307.95837</v>
+        <v>28038.52346</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>965.7351300000001</v>
+        <v>2600.07968</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2933.93128</v>
+        <v>1904.65656</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>863.53381</v>
+        <v>1463.92818</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7059.382439999999</v>
+        <v>6919.50346</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>11316.82894</v>
+        <v>9061.67258</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5404.42123</v>
+        <v>6772.86376</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3525.45421</v>
+        <v>6984.595189999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4655.83129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2975.13921</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1559.809</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>68494.95011000001</v>
+        <v>75444.79312</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>107858.61638</v>
+        <v>114071.98717</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>83778.34847</v>
+        <v>93002.08029000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>96986.03323</v>
+        <v>104923.45698</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>149968.47695</v>
+        <v>167838.28558</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>143588.26546</v>
+        <v>168062.92049</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>187272.29006</v>
+        <v>220680.95955</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>152935.90298</v>
+        <v>193802.30751</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>172581.62459</v>
+        <v>208705.2316</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>336077.48764</v>
+        <v>358217.96136</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>332368.48228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>355140.12162</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>361543.479</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>152570.01197</v>
+        <v>161244.84003</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>173150.81082</v>
+        <v>182325.41819</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>200093.25701</v>
+        <v>207722.60188</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>191854.81166</v>
+        <v>207353.63738</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>270411.81284</v>
+        <v>285660.80551</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>285876.94476</v>
+        <v>321412.66905</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>321610.72522</v>
+        <v>361487.5507200001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>335770.29463</v>
+        <v>399944.87933</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>315078.14973</v>
+        <v>371343.02237</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>511016.7878399999</v>
+        <v>506374.56927</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>546247.21867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>564342.93478</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>563525.105</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>72199.14903</v>
+        <v>66725.07342</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>79649.03522000001</v>
+        <v>79550.66760000002</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>67089.38959000001</v>
+        <v>62824.30939</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>64170.89352999999</v>
+        <v>91338.82772999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>140972.36727</v>
+        <v>174953.31884</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>96977.40762</v>
+        <v>143096.70858</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>93777.64632000001</v>
+        <v>143688.64686</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>90787.91888</v>
+        <v>152627.52493</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>102016.06328</v>
+        <v>173424.62268</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>289979.03137</v>
+        <v>349303.4592</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>215300.42793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>292027.94143</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>446018.091</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19700.22899</v>
+        <v>53985.98697000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>21801.33046</v>
+        <v>23914.66109</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>22265.51332</v>
+        <v>55668.23322</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>27937.2899</v>
+        <v>24671.7025</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>40558.49634</v>
+        <v>71371.15333</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>59409.35199</v>
+        <v>57337.42987</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>63540.04914</v>
+        <v>89591.02340999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>49620.5868</v>
+        <v>100505.3209</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>70797.31390000001</v>
+        <v>94865.65049000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>287767.60027</v>
+        <v>372074.87639</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>132826.56113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>149093.00914</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>239226.039</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>483.04657</v>
+        <v>227.63378</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>304.45965</v>
+        <v>482.87948</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1147.39016</v>
+        <v>2498.26579</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>299.9842</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2081.07577</v>
+        <v>71.18127</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1767.78466</v>
+        <v>507.42458</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1503.52802</v>
+        <v>1089.12094</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1094.22061</v>
+        <v>93.93786999999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5989.08336</v>
+        <v>525.4042099999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>27718.65569</v>
+        <v>3844.38732</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4323.08774</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3349.30361</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1916.662</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>30876.73775</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>42.73162</v>
@@ -1817,13 +1833,13 @@
         <v>300.4682</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2521.50722</v>
+        <v>313.15557</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1891.44558</v>
+        <v>528.5232099999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2209.90889</v>
+        <v>608.3996900000001</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1835,223 +1851,253 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5587.167570000001</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1375.57108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1443.76167</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2935.63854</v>
+        <v>3991.84597</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1768.74487</v>
+        <v>2334.66161</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2496.06583</v>
+        <v>3547.007349999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3482.45495</v>
+        <v>3708.34081</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4130.58954</v>
+        <v>3819.96401</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3893.82669</v>
+        <v>8575.226379999998</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4660.77319</v>
+        <v>12735.89049</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4444.40406</v>
+        <v>14919.64506</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5455.35626</v>
+        <v>8295.110070000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>22197.11456</v>
+        <v>23188.61745</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>24341.44649</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21713.59149</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18485.653</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>72.73439999999999</v>
+        <v>86.04936000000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>98.67671</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>123.1422</v>
+        <v>118.18506</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>75.75303</v>
+        <v>92.38544999999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>488.22774</v>
+        <v>488.96763</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>404.68476</v>
+        <v>382.54987</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>764.7358200000001</v>
+        <v>765.5190200000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1020.35586</v>
+        <v>735.06047</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>349.26766</v>
+        <v>311.36264</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3944.80519</v>
+        <v>3989.3896</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>966.80933</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>577.95028</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>547.447</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>393.20937</v>
+        <v>823.7330899999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>320.05218</v>
+        <v>339.28419</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>518.9729400000001</v>
+        <v>599.83295</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>549.56435</v>
+        <v>450.51134</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>584.21321</v>
+        <v>27775.07944</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>822.67965</v>
+        <v>436.49342</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>733.0933100000001</v>
+        <v>117.64501</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>797.36242</v>
+        <v>916.57817</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>680.3461600000001</v>
+        <v>2282.49516</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>226.56333</v>
+        <v>536.7168399999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1506.30314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3152.16937</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6954.857</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>121.62498</v>
+        <v>222.34494</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>678.8241999999999</v>
+        <v>521.64652</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>742.70992</v>
+        <v>1795.76097</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>178.4002</v>
+        <v>183.65316</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>290.17344</v>
+        <v>437.38977</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>132.94768</v>
+        <v>216.83716</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>309.31555</v>
+        <v>662.4951699999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>117.01696</v>
+        <v>381.0416499999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>584.2371900000001</v>
+        <v>588.2361</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1240.88563</v>
+        <v>11687.94525</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>414.21253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>764.4889499999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>528.537</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>8951.323910000001</v>
+        <v>9999.46356</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11343.03492</v>
+        <v>13327.38704</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>8580.942660000001</v>
+        <v>15248.45618</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7992.66067</v>
+        <v>10665.79005</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18548.97472</v>
+        <v>25891.13779</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>32330.77264</v>
+        <v>30278.07963</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>38167.06386</v>
+        <v>55402.14164</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>22820.48634</v>
+        <v>63859.50246000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>19906.65831</v>
+        <v>53559.36359</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>197076.73895</v>
+        <v>291000.74594</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>67085.31796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>83669.02627000002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>166035.9</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>42.02638</v>
+        <v>18.272</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>27.58898</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>50.0796</v>
+        <v>52.10151</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>8.33065</v>
@@ -2063,7 +2109,7 @@
         <v>2.87327</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1.63168</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,290 +2120,330 @@
       <c r="M33" s="48" t="n">
         <v>191.09673</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>17.759</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>11.2546</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>28.33188</v>
+        <v>122.29347</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>2.49437</v>
+        <v>2.49842</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>2</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>115.88046</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>6.70371</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>5</v>
+        <v>115.83571</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>20.48672</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>405.85335</v>
+        <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>397.73738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>106.02774</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6689.37024</v>
+        <v>7728.65192</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7188.885449999999</v>
+        <v>6645.100449999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8355.82141</v>
+        <v>31560.25672</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>12784.39131</v>
+        <v>9203.26619</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>12533.46569</v>
+        <v>12348.57956</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>17846.74702</v>
+        <v>16216.53868</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>17391.96241</v>
+        <v>18808.63416</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>19078.55551</v>
+        <v>19242.16615</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>37811.87824000001</v>
+        <v>29283.192</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>29270.43272</v>
+        <v>37727.69071</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>32224.97875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>34125.59303</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>44739.224</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>19438.66771</v>
+        <v>18069.39659</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>18607.30166</v>
+        <v>20059.04583</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17928.71652</v>
+        <v>32373.91016</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>54132.98228</v>
+        <v>53870.59361</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>37141.94703</v>
+        <v>53658.71526</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>46440.98339</v>
+        <v>41154.98074</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>56028.03516000001</v>
+        <v>96744.28448999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>45877.46046</v>
+        <v>107129.78706</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>59224.87781</v>
+        <v>86007.3511</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>269548.51764</v>
+        <v>355259.16142</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>115979.85491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>178798.44716</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>187989.377</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2982.01712</v>
+        <v>616.20674</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>574.77185</v>
+        <v>573.45009</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>552.1881</v>
+        <v>585.75148</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>691.80066</v>
+        <v>701.74397</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>356.70706</v>
+        <v>356.32188</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>256.47916</v>
+        <v>296.9881</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>225.00937</v>
+        <v>192.66067</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>297.08554</v>
+        <v>291.38007</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11558.50663</v>
+        <v>202.44521</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>189.421</v>
+        <v>175.69887</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>910.6132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1077.53517</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1879.003</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1206.87225</v>
+        <v>1351.12005</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>710.54501</v>
+        <v>683.2701099999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2009.96227</v>
+        <v>1866.1256</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>36941.79609</v>
+        <v>37289.84042</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4188.12474</v>
+        <v>5205.28931</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1666.44043</v>
+        <v>1808.61876</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1428.00289</v>
+        <v>1990.44508</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3537.56911</v>
+        <v>4123.20811</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4001.05207</v>
+        <v>5847.09942</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>14460.88733</v>
+        <v>14370.25375</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>12103.2441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>40465.82295</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5773.969</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>117.25503</v>
+        <v>39.51155</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>133.80629</v>
+        <v>402.7404</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>72.30006999999999</v>
+        <v>764.37361</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>517.5165400000001</v>
+        <v>459.7195</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>412.8393</v>
+        <v>3064.54926</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>220.07109</v>
+        <v>91.51478</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>152.92655</v>
+        <v>1628.67163</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>419.91267</v>
+        <v>470.28487</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>203.00888</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>197.096</v>
+        <v>495.34059</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0.06166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2800.00234</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>282.492</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>9609.947760000001</v>
+        <v>11252.64106</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11686.26423</v>
+        <v>13503.76602</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8837.297430000001</v>
+        <v>23897.63001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7314.0309</v>
+        <v>9525.74958</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>22717.64355</v>
+        <v>36614.39692</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>33322.16372</v>
+        <v>30706.29812</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46529.12414</v>
+        <v>84740.34208</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>31065.8188</v>
+        <v>83585.95971000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>25094.26605</v>
+        <v>58033.04879</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>232879.25581</v>
+        <v>311791.38338</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>81268.59759999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>99142.00237</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>127446.501</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>29.61867</v>
+        <v>253.48629</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11.60784</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2369,55 +2455,60 @@
         <v>3.5586</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>29.334</v>
+        <v>29.07431</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>195.58407</v>
+        <v>556.16727</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2.9</v>
+        <v>192.75977</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>223.46329</v>
+        <v>226.46413</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>19.55642</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>627.633</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>25.94375</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>74.17357000000001</v>
+        <v>73.89981</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.84746</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>47.58242</v>
+        <v>68.43257000000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>24.56596</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>166.88849</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5467.01313</v>
+        <v>4530.48715</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5416.13287</v>
+        <v>4821.919400000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6438.96865</v>
+        <v>5260.02946</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8667.838089999999</v>
+        <v>5893.540140000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9462.22632</v>
+        <v>8414.59929</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>10946.49499</v>
+        <v>8222.48667</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7449.805719999999</v>
+        <v>7567.56519</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>10554.17434</v>
+        <v>18441.62857</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>18368.04418</v>
+        <v>21554.86031</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>21598.39421</v>
+        <v>28200.0207</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>21677.78193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>35293.52791</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>51979.779</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>29557.84797</v>
+        <v>33424.11412</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>21346.81847</v>
+        <v>26747.68132</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>22797.21808</v>
+        <v>25371.43149</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>28359.03194</v>
+        <v>36509.10192</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>44292.75342</v>
+        <v>51048.27435</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>44428.87354</v>
+        <v>57201.25158</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>49511.6823</v>
+        <v>67738.53294</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>50661.50511</v>
+        <v>93160.72306999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>46076.42715</v>
+        <v>93719.11064</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>143374.01147</v>
+        <v>278854.10626</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>163672.7855</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>236765.45694</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>142957.718</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>27314.89598</v>
+        <v>31368.07712</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>19606.5976</v>
+        <v>24682.33987</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>21294.84937</v>
+        <v>23868.81566</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>27029.95692</v>
+        <v>34664.99873000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>41057.57196</v>
+        <v>47843.80766000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>41335.25955</v>
+        <v>53370.46072</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>47316.30261</v>
+        <v>65437.24748</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>47593.87034</v>
+        <v>82707.10938999998</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>44016.37043</v>
+        <v>76019.70242</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>137695.66307</v>
+        <v>185030.17899</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>157138.30357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>190859.04379</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>136225.951</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2242.95199</v>
+        <v>2056.037</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1740.22087</v>
+        <v>2065.34145</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1502.36871</v>
+        <v>1502.61583</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1329.07502</v>
+        <v>1844.10319</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3235.18146</v>
+        <v>3204.46669</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3093.61399</v>
+        <v>3830.790860000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2195.37969</v>
+        <v>2301.28546</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3067.63477</v>
+        <v>10453.61368</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2060.05672</v>
+        <v>17699.40822</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5678.348400000001</v>
+        <v>93823.92727</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6534.48193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>45906.41315000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6731.767</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>42902.86234</v>
+        <v>69217.54968000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>61496.24555000001</v>
+        <v>56658.60154</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>48628.96831</v>
+        <v>60747.20096</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>9616.16921</v>
+        <v>25630.8347</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>100096.16316</v>
+        <v>141617.48256</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>65516.90268</v>
+        <v>102077.90613</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>51777.978</v>
+        <v>68796.85284000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>43869.54011</v>
+        <v>52842.3357</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>67512.07222</v>
+        <v>88563.81143</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>164824.10253</v>
+        <v>87265.06791</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>68474.34865</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>25557.04647</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>354297.035</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>19474.89093</v>
+        <v>36658.86915</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>18657.82698</v>
+        <v>18781.9225</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>21076.22359</v>
+        <v>28682.35614</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>53256.79023999999</v>
+        <v>50976.87901</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25116.37495</v>
+        <v>28210.18487</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>32719.03001</v>
+        <v>45462.56601</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>36190.15315999999</v>
+        <v>52117.67655</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>38149.92846</v>
+        <v>88982.33168</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>33067.55618</v>
+        <v>47333.1698</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>75898.39954</v>
+        <v>79444.98031999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>124022.67731</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>134553.24678</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>167665.833</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>197.48077</v>
+        <v>534.9428800000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>73.37924000000001</v>
+        <v>402.1995</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>379.39499</v>
+        <v>1716.06309</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>922.3825899999999</v>
+        <v>829.26623</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>566.65626</v>
+        <v>969.57034</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>369.69728</v>
+        <v>378.7337900000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>457.32724</v>
+        <v>926.81157</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>239.48467</v>
+        <v>974.7038700000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>278.13329</v>
+        <v>382.59749</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>150.07693</v>
+        <v>143.95458</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>777.3181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1332.52275</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>198.889</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>19277.41016</v>
+        <v>36123.92627</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>18584.44774</v>
+        <v>18379.723</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>20696.8286</v>
+        <v>26966.29305</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>52334.40765</v>
+        <v>50147.61278</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24549.71869</v>
+        <v>27240.61453</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>32349.33273</v>
+        <v>45083.83222</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>35732.82592</v>
+        <v>51190.86498000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>37910.44379</v>
+        <v>88007.62781000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>32789.42289</v>
+        <v>46950.57231</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>75748.32261</v>
+        <v>79301.02574000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>123245.35921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>133220.72403</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>167466.944</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>17309.56113</v>
+        <v>24752.17286</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>16619.39043</v>
+        <v>25493.20528</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>79176.48947999999</v>
+        <v>73739.82909</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>27454.57804</v>
+        <v>27734.58196</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>31342.88161</v>
+        <v>68751.23212999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>69030.63213</v>
+        <v>87257.38612000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>49114.88249</v>
+        <v>67639.92693</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>92093.82432000001</v>
+        <v>104942.51472</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>49609.5209</v>
+        <v>56216.24597</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>133973.20157</v>
+        <v>141148.01947</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>128289.29211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>103680.86791</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>103754.697</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3280.43136</v>
+        <v>7313.912469999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2639.22743</v>
+        <v>6304.87157</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3041.07428</v>
+        <v>3990.9381</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2991.03174</v>
+        <v>2943.392139999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5527.64706</v>
+        <v>4422.10144</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10082.37169</v>
+        <v>11559.42316</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11644.48801</v>
+        <v>19739.02772</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>11340.89359</v>
+        <v>14319.38323</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>10271.49817</v>
+        <v>6969.1303</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>18016.40949</v>
+        <v>26189.90194</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>22281.01433</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>22651.20302</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>31386.667</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1337.54305</v>
+        <v>1913.85803</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1346.02835</v>
+        <v>4396.05954</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1879.22565</v>
+        <v>2058.28283</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1501.27297</v>
+        <v>1679.51977</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2235.73135</v>
+        <v>5299.106029999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2435.96024</v>
+        <v>2321.7826</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2455.22521</v>
+        <v>3183.87517</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5291.94568</v>
+        <v>3905.22178</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3580.03946</v>
+        <v>3451.03662</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4732.644740000001</v>
+        <v>3616.10874</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>22210.67582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8134.91267</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3851.918</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12691.58672</v>
+        <v>15524.40236</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>12634.13465</v>
+        <v>14792.27417</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>74256.18955</v>
+        <v>67690.60816</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>22962.27333</v>
+        <v>23111.67005</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>23579.5032</v>
+        <v>59030.02466</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>56512.30020000001</v>
+        <v>73376.18036</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>35015.16927000001</v>
+        <v>44717.02404</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>75460.98505</v>
+        <v>86717.90971000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>35757.98327</v>
+        <v>45796.07905</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>111224.14734</v>
+        <v>111342.00879</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>83797.60196000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>72894.75221999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>68516.11199999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>45068.19214</v>
+        <v>81124.24597</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>63534.6821</v>
+        <v>49947.31875999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-9471.297579999999</v>
+        <v>15689.72801</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>35418.38140999999</v>
+        <v>48873.13175</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>93869.6565</v>
+        <v>101076.4353</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>29205.30056</v>
+        <v>60283.08602</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>38853.24867</v>
+        <v>53274.60246</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-10074.35575</v>
+        <v>36882.15266</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>50970.1075</v>
+        <v>79680.73526</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>106749.3005</v>
+        <v>25562.02876</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>64207.73385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>56429.42533999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>418208.171</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>13501.90968</v>
+        <v>13841.74196</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>17259.95305</v>
+        <v>18122.25488</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>17236.96999</v>
+        <v>19649.82177</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>17593.13846</v>
+        <v>20067.45223</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>24911.75677</v>
+        <v>28750.84686</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>24142.51384</v>
+        <v>30559.99884</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>24745.81769</v>
+        <v>32636.0843</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>23914.83312</v>
+        <v>37461.93138</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>25122.48378</v>
+        <v>35328.32988</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65084.06604</v>
+        <v>76674.21628000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>55123.23978</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>59282.20107</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>89422.965</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>31566.28246</v>
+        <v>67282.50401</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>46274.72904999999</v>
+        <v>31825.06388</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-26708.26757</v>
+        <v>-3960.093760000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>17825.24295</v>
+        <v>28805.67952</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>68957.89973</v>
+        <v>72325.58843999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5062.786720000001</v>
+        <v>29723.08718</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>14107.43098</v>
+        <v>20638.51816</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-33989.18887</v>
+        <v>-579.7787199999988</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>25847.62372</v>
+        <v>44352.40538</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>41665.23446</v>
+        <v>-51112.18752000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9084.494070000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-2852.775729999997</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>328785.206</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>849</v>
+        <v>745</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>913</v>
+        <v>785</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>981</v>
+        <v>842</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1049</v>
+        <v>896</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1253</v>
+        <v>1015</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1293</v>
+        <v>1017</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1307</v>
+        <v>1021</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1329</v>
+        <v>1027</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1389</v>
+        <v>1037</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1242</v>
+        <v>991</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>925</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>